--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -11,19 +11,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Actual Data</t>
   </si>
   <si>
     <t>Expected Result</t>
+  </si>
+  <si>
+    <t>15 Dec 2019</t>
+  </si>
+  <si>
+    <t>Sun Dec 15 2019 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Invalid date</t>
+  </si>
+  <si>
+    <t>Feb 17, 2019</t>
+  </si>
+  <si>
+    <t>Sun Feb 17 2019 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -33,6 +54,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -48,11 +70,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -271,7 +305,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="20.43"/>
+    <col customWidth="1" min="1" max="1" width="20.43"/>
+    <col customWidth="1" min="2" max="2" width="33.14"/>
+    <col customWidth="1" min="3" max="26" width="20.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -283,19 +319,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12.0</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
